--- a/medicine/Soins infirmiers et profession infirmière/Groupement_hospitalier_de_territoire_Grand_Paris_Nord_Est/Groupement_hospitalier_de_territoire_Grand_Paris_Nord_Est.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Groupement_hospitalier_de_territoire_Grand_Paris_Nord_Est/Groupement_hospitalier_de_territoire_Grand_Paris_Nord_Est.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le groupement hospitalier de territoire Grand Paris Nord Est, appelé « GHT 93 Est », est un groupement hospitalier de territoire, mode de coopération entre les établissements publics de santé en France à l’échelle du département de la Seine-Saint-Denis.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le groupement hospitalier de territoire Grand Paris Nord Est est composé de trois établissement hospitaliers[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le groupement hospitalier de territoire Grand Paris Nord Est est composé de trois établissement hospitaliers :
 Le centre hospitalier intercommunal Robert-Ballanger d'Aulnay-sous-Bois ;
 Le centre hospitalier intercommunal André-Grégoire de Montreuil ;
 Le groupe hospitalier intercommunal Le Raincy-Montfermeil de Montfermeil.
@@ -550,7 +566,7 @@
 L'hôpital Jean-Verdier de Bondy ;
 L'hôpital René-Muret-Bigottini de Sevran.
 L'établissement public de santé mentale de Ville-Evrard de Neuilly-sur-Marne
-L'hôpital universitaire Robert-Debré depuis mars 2019[2]</t>
+L'hôpital universitaire Robert-Debré depuis mars 2019</t>
         </is>
       </c>
     </row>
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
